--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -531,25 +531,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H2">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I2">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J2">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>2795.473306670917</v>
+        <v>18.253748301125</v>
       </c>
       <c r="R2">
-        <v>25159.25976003825</v>
+        <v>164.283734710125</v>
       </c>
       <c r="S2">
-        <v>0.2146029534793088</v>
+        <v>0.00148650209441745</v>
       </c>
       <c r="T2">
-        <v>0.2398120009040031</v>
+        <v>0.001638058599235505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H3">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I3">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J3">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>2991.559090352298</v>
+        <v>22.14400782041666</v>
       </c>
       <c r="R3">
-        <v>26924.03181317067</v>
+        <v>199.29607038375</v>
       </c>
       <c r="S3">
-        <v>0.2296560710365078</v>
+        <v>0.001803307104975094</v>
       </c>
       <c r="T3">
-        <v>0.2566333828221374</v>
+        <v>0.001987163503812323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H4">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I4">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J4">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>1502.159551057635</v>
+        <v>12.50138978394444</v>
       </c>
       <c r="R4">
-        <v>13519.43595951872</v>
+        <v>112.5125080555</v>
       </c>
       <c r="S4">
-        <v>0.1153178159436706</v>
+        <v>0.001018056225515995</v>
       </c>
       <c r="T4">
-        <v>0.1288640055179742</v>
+        <v>0.001121852273854516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H5">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I5">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J5">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>3423.195109564851</v>
+        <v>13.63370774010417</v>
       </c>
       <c r="R5">
-        <v>20539.17065738911</v>
+        <v>81.80224644062501</v>
       </c>
       <c r="S5">
-        <v>0.2627919140188104</v>
+        <v>0.001110267040829702</v>
       </c>
       <c r="T5">
-        <v>0.1957744249725804</v>
+        <v>0.0008156429694959291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H6">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I6">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J6">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>1716.22716420458</v>
+        <v>13.44914244125</v>
       </c>
       <c r="R6">
-        <v>15446.04447784122</v>
+        <v>121.04228197125</v>
       </c>
       <c r="S6">
-        <v>0.1317513629626937</v>
+        <v>0.001095236883802359</v>
       </c>
       <c r="T6">
-        <v>0.1472279736213391</v>
+        <v>0.001206901895698594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +841,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H7">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I7">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J7">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>5.600775556792001</v>
+        <v>2466.001958908529</v>
       </c>
       <c r="R7">
-        <v>50.40698001112801</v>
+        <v>22194.01763017676</v>
       </c>
       <c r="S7">
-        <v>0.0004299604554956948</v>
+        <v>0.2008199640031818</v>
       </c>
       <c r="T7">
-        <v>0.0004804671858906201</v>
+        <v>0.2212945882612373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H8">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I8">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J8">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>5.99363656593</v>
+        <v>2991.559090352297</v>
       </c>
       <c r="R8">
-        <v>53.94272909337</v>
+        <v>26924.03181317067</v>
       </c>
       <c r="S8">
-        <v>0.0004601196176907647</v>
+        <v>0.2436189422590088</v>
       </c>
       <c r="T8">
-        <v>0.0005141690940625661</v>
+        <v>0.2684571416365323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H9">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I9">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J9">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>3.009600726964</v>
+        <v>1688.883356323374</v>
       </c>
       <c r="R9">
-        <v>27.086406542676</v>
+        <v>15199.95020691037</v>
       </c>
       <c r="S9">
-        <v>0.0002310410917745819</v>
+        <v>0.137534965695059</v>
       </c>
       <c r="T9">
-        <v>0.0002581810996131047</v>
+        <v>0.1515573601264526</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H10">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I10">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J10">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>6.858426245755501</v>
+        <v>1841.854584584755</v>
       </c>
       <c r="R10">
-        <v>41.150557474533</v>
+        <v>11051.12750750853</v>
       </c>
       <c r="S10">
-        <v>0.0005265078099822482</v>
+        <v>0.1499922455613612</v>
       </c>
       <c r="T10">
-        <v>0.000392237196976575</v>
+        <v>0.1101898156677753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H11">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I11">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J11">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>3.438488619527001</v>
+        <v>1816.92061589993</v>
       </c>
       <c r="R11">
-        <v>30.94639757574301</v>
+        <v>16352.28554309937</v>
       </c>
       <c r="S11">
-        <v>0.0002639659665125726</v>
+        <v>0.1479617367551317</v>
       </c>
       <c r="T11">
-        <v>0.0002949736039212641</v>
+        <v>0.1630471939190551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H12">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I12">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J12">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>128.8225372551173</v>
+        <v>318.249006024897</v>
       </c>
       <c r="R12">
-        <v>772.935223530704</v>
+        <v>1909.494036149382</v>
       </c>
       <c r="S12">
-        <v>0.009889451243792872</v>
+        <v>0.02591674905329579</v>
       </c>
       <c r="T12">
-        <v>0.007367432281075953</v>
+        <v>0.01903939627147174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H13">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I13">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J13">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>137.85867010361</v>
+        <v>386.0745947625899</v>
       </c>
       <c r="R13">
-        <v>827.15202062166</v>
+        <v>2316.44756857554</v>
       </c>
       <c r="S13">
-        <v>0.01058313727996085</v>
+        <v>0.03144015597501079</v>
       </c>
       <c r="T13">
-        <v>0.007884213725243876</v>
+        <v>0.02309709397633679</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H14">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I14">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J14">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>69.22334198916133</v>
+        <v>217.958241071228</v>
       </c>
       <c r="R14">
-        <v>415.340051934968</v>
+        <v>1307.749446427368</v>
       </c>
       <c r="S14">
-        <v>0.005314138970718158</v>
+        <v>0.01774952609749504</v>
       </c>
       <c r="T14">
-        <v>0.003958921282266923</v>
+        <v>0.01303945415013624</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H15">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I15">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J15">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>157.7495583596235</v>
+        <v>237.6998885458875</v>
       </c>
       <c r="R15">
-        <v>630.998233438494</v>
+        <v>950.79955418355</v>
       </c>
       <c r="S15">
-        <v>0.01211012140707843</v>
+        <v>0.01935719592147983</v>
       </c>
       <c r="T15">
-        <v>0.006014523096904757</v>
+        <v>0.009480338322158074</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H16">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I16">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J16">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>79.08812338554569</v>
+        <v>234.48204408249</v>
       </c>
       <c r="R16">
-        <v>474.5287403132741</v>
+        <v>1406.89226449494</v>
       </c>
       <c r="S16">
-        <v>0.006071438716002772</v>
+        <v>0.01909514932943521</v>
       </c>
       <c r="T16">
-        <v>0.004523093596010049</v>
+        <v>0.01402799842674757</v>
       </c>
     </row>
   </sheetData>
